--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Il1rap</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H2">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I2">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J2">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.719753333333333</v>
+        <v>2.175751666666667</v>
       </c>
       <c r="N2">
-        <v>8.15926</v>
+        <v>6.527255</v>
       </c>
       <c r="O2">
-        <v>0.1068554218872926</v>
+        <v>0.1287951194969566</v>
       </c>
       <c r="P2">
-        <v>0.1068554218872926</v>
+        <v>0.1287951194969566</v>
       </c>
       <c r="Q2">
-        <v>11.07506040627555</v>
+        <v>0.08417330472833333</v>
       </c>
       <c r="R2">
-        <v>99.67554365647999</v>
+        <v>0.757559742555</v>
       </c>
       <c r="S2">
-        <v>0.04252765631451489</v>
+        <v>0.0008598319279144625</v>
       </c>
       <c r="T2">
-        <v>0.0425276563145149</v>
+        <v>0.0008598319279144623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H3">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I3">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J3">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>17.570788</v>
       </c>
       <c r="O3">
-        <v>0.2301108145385953</v>
+        <v>0.3467049686454247</v>
       </c>
       <c r="P3">
-        <v>0.2301108145385953</v>
+        <v>0.3467049686454247</v>
       </c>
       <c r="Q3">
-        <v>23.84990041815822</v>
+        <v>0.2265870251186667</v>
       </c>
       <c r="R3">
-        <v>214.649103763424</v>
+        <v>2.039283226068</v>
       </c>
       <c r="S3">
-        <v>0.0915823779655511</v>
+        <v>0.002314590822790944</v>
       </c>
       <c r="T3">
-        <v>0.09158237796555113</v>
+        <v>0.002314590822790944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H4">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I4">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J4">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.639461666666667</v>
+        <v>5.405749</v>
       </c>
       <c r="N4">
-        <v>19.918385</v>
+        <v>16.217247</v>
       </c>
       <c r="O4">
-        <v>0.2608554492059968</v>
+        <v>0.3199970378477111</v>
       </c>
       <c r="P4">
-        <v>0.2608554492059968</v>
+        <v>0.3199970378477111</v>
       </c>
       <c r="Q4">
-        <v>27.03643676883111</v>
+        <v>0.209132211563</v>
       </c>
       <c r="R4">
-        <v>243.32793091948</v>
+        <v>1.882189904067</v>
       </c>
       <c r="S4">
-        <v>0.1038185119263498</v>
+        <v>0.002136289566360596</v>
       </c>
       <c r="T4">
-        <v>0.1038185119263498</v>
+        <v>0.002136289566360596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H5">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I5">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J5">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.705333666666667</v>
+        <v>1.577118333333333</v>
       </c>
       <c r="N5">
-        <v>5.116001000000001</v>
+        <v>4.731355</v>
       </c>
       <c r="O5">
-        <v>0.06700024821255986</v>
+        <v>0.0933586067355302</v>
       </c>
       <c r="P5">
-        <v>0.06700024821255986</v>
+        <v>0.09335860673553019</v>
       </c>
       <c r="Q5">
-        <v>6.944259664916444</v>
+        <v>0.06101397696166666</v>
       </c>
       <c r="R5">
-        <v>62.498336984248</v>
+        <v>0.5491257926549999</v>
       </c>
       <c r="S5">
-        <v>0.02666559617326995</v>
+        <v>0.0006232589490218678</v>
       </c>
       <c r="T5">
-        <v>0.02666559617326996</v>
+        <v>0.0006232589490218677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.072082666666666</v>
+        <v>0.038687</v>
       </c>
       <c r="H6">
-        <v>12.216248</v>
+        <v>0.116061</v>
       </c>
       <c r="I6">
-        <v>0.3979924983064648</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="J6">
-        <v>0.3979924983064649</v>
+        <v>0.006675966692470672</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.531169</v>
+        <v>1.877573666666666</v>
       </c>
       <c r="N6">
-        <v>25.593507</v>
+        <v>5.632720999999999</v>
       </c>
       <c r="O6">
-        <v>0.3351780661555555</v>
+        <v>0.1111442672743775</v>
       </c>
       <c r="P6">
-        <v>0.3351780661555555</v>
+        <v>0.1111442672743775</v>
       </c>
       <c r="Q6">
-        <v>34.739625411304</v>
+        <v>0.07263769244233333</v>
       </c>
       <c r="R6">
-        <v>312.656628701736</v>
+        <v>0.6537392319809999</v>
       </c>
       <c r="S6">
-        <v>0.133398355926779</v>
+        <v>0.0007419954263828024</v>
       </c>
       <c r="T6">
-        <v>0.1333983559267791</v>
+        <v>0.0007419954263828022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.159473666666667</v>
+        <v>2.929373</v>
       </c>
       <c r="H7">
-        <v>18.478421</v>
+        <v>8.788119</v>
       </c>
       <c r="I7">
-        <v>0.6020075016935351</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="J7">
-        <v>0.6020075016935352</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.719753333333333</v>
+        <v>2.175751666666667</v>
       </c>
       <c r="N7">
-        <v>8.15926</v>
+        <v>6.527255</v>
       </c>
       <c r="O7">
-        <v>0.1068554218872926</v>
+        <v>0.1287951194969566</v>
       </c>
       <c r="P7">
-        <v>0.1068554218872926</v>
+        <v>0.1287951194969566</v>
       </c>
       <c r="Q7">
-        <v>16.75224903649556</v>
+        <v>6.373588187038334</v>
       </c>
       <c r="R7">
-        <v>150.77024132846</v>
+        <v>57.362293683345</v>
       </c>
       <c r="S7">
-        <v>0.06432776557277774</v>
+        <v>0.06510632600539129</v>
       </c>
       <c r="T7">
-        <v>0.06432776557277774</v>
+        <v>0.06510632600539128</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.159473666666667</v>
+        <v>2.929373</v>
       </c>
       <c r="H8">
-        <v>18.478421</v>
+        <v>8.788119</v>
       </c>
       <c r="I8">
-        <v>0.6020075016935351</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="J8">
-        <v>0.6020075016935352</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>17.570788</v>
       </c>
       <c r="O8">
-        <v>0.2301108145385953</v>
+        <v>0.3467049686454247</v>
       </c>
       <c r="P8">
-        <v>0.2301108145385953</v>
+        <v>0.3467049686454247</v>
       </c>
       <c r="Q8">
-        <v>36.07560199619422</v>
+        <v>17.15713065197467</v>
       </c>
       <c r="R8">
-        <v>324.680417965748</v>
+        <v>154.414175867772</v>
       </c>
       <c r="S8">
-        <v>0.1385284365730441</v>
+        <v>0.1752604198395217</v>
       </c>
       <c r="T8">
-        <v>0.1385284365730442</v>
+        <v>0.1752604198395217</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.159473666666667</v>
+        <v>2.929373</v>
       </c>
       <c r="H9">
-        <v>18.478421</v>
+        <v>8.788119</v>
       </c>
       <c r="I9">
-        <v>0.6020075016935351</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="J9">
-        <v>0.6020075016935352</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.639461666666667</v>
+        <v>5.405749</v>
       </c>
       <c r="N9">
-        <v>19.918385</v>
+        <v>16.217247</v>
       </c>
       <c r="O9">
-        <v>0.2608554492059968</v>
+        <v>0.3199970378477111</v>
       </c>
       <c r="P9">
-        <v>0.2608554492059968</v>
+        <v>0.3199970378477111</v>
       </c>
       <c r="Q9">
-        <v>40.89558929667611</v>
+        <v>15.835455165377</v>
       </c>
       <c r="R9">
-        <v>368.060303670085</v>
+        <v>142.519096488393</v>
       </c>
       <c r="S9">
-        <v>0.157036937279647</v>
+        <v>0.1617594793051526</v>
       </c>
       <c r="T9">
-        <v>0.157036937279647</v>
+        <v>0.1617594793051526</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.159473666666667</v>
+        <v>2.929373</v>
       </c>
       <c r="H10">
-        <v>18.478421</v>
+        <v>8.788119</v>
       </c>
       <c r="I10">
-        <v>0.6020075016935351</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="J10">
-        <v>0.6020075016935352</v>
+        <v>0.5055030521317986</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.705333666666667</v>
+        <v>1.577118333333333</v>
       </c>
       <c r="N10">
-        <v>5.116001000000001</v>
+        <v>4.731355</v>
       </c>
       <c r="O10">
-        <v>0.06700024821255986</v>
+        <v>0.0933586067355302</v>
       </c>
       <c r="P10">
-        <v>0.06700024821255986</v>
+        <v>0.09335860673553019</v>
       </c>
       <c r="Q10">
-        <v>10.50395781271345</v>
+        <v>4.619967863471667</v>
       </c>
       <c r="R10">
-        <v>94.53562031442102</v>
+        <v>41.579710771245</v>
       </c>
       <c r="S10">
-        <v>0.0403346520392899</v>
+        <v>0.04719306064758281</v>
       </c>
       <c r="T10">
-        <v>0.04033465203928991</v>
+        <v>0.0471930606475828</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.929373</v>
+      </c>
+      <c r="H11">
+        <v>8.788119</v>
+      </c>
+      <c r="I11">
+        <v>0.5055030521317986</v>
+      </c>
+      <c r="J11">
+        <v>0.5055030521317986</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.877573666666666</v>
+      </c>
+      <c r="N11">
+        <v>5.632720999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.1111442672743775</v>
+      </c>
+      <c r="P11">
+        <v>0.1111442672743775</v>
+      </c>
+      <c r="Q11">
+        <v>5.500113604644333</v>
+      </c>
+      <c r="R11">
+        <v>49.50102244179899</v>
+      </c>
+      <c r="S11">
+        <v>0.05618376633415021</v>
+      </c>
+      <c r="T11">
+        <v>0.0561837663341502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.826906</v>
+      </c>
+      <c r="H12">
+        <v>8.480718</v>
+      </c>
+      <c r="I12">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J12">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.175751666666667</v>
+      </c>
+      <c r="N12">
+        <v>6.527255</v>
+      </c>
+      <c r="O12">
+        <v>0.1287951194969566</v>
+      </c>
+      <c r="P12">
+        <v>0.1287951194969566</v>
+      </c>
+      <c r="Q12">
+        <v>6.15064544101</v>
+      </c>
+      <c r="R12">
+        <v>55.35580896909</v>
+      </c>
+      <c r="S12">
+        <v>0.06282896156365088</v>
+      </c>
+      <c r="T12">
+        <v>0.06282896156365086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.826906</v>
+      </c>
+      <c r="H13">
+        <v>8.480718</v>
+      </c>
+      <c r="I13">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J13">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.856929333333333</v>
+      </c>
+      <c r="N13">
+        <v>17.570788</v>
+      </c>
+      <c r="O13">
+        <v>0.3467049686454247</v>
+      </c>
+      <c r="P13">
+        <v>0.3467049686454247</v>
+      </c>
+      <c r="Q13">
+        <v>16.556988673976</v>
+      </c>
+      <c r="R13">
+        <v>149.012898065784</v>
+      </c>
+      <c r="S13">
+        <v>0.1691299579831121</v>
+      </c>
+      <c r="T13">
+        <v>0.169129957983112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.159473666666667</v>
-      </c>
-      <c r="H11">
-        <v>18.478421</v>
-      </c>
-      <c r="I11">
-        <v>0.6020075016935351</v>
-      </c>
-      <c r="J11">
-        <v>0.6020075016935352</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>8.531169</v>
-      </c>
-      <c r="N11">
-        <v>25.593507</v>
-      </c>
-      <c r="O11">
-        <v>0.3351780661555555</v>
-      </c>
-      <c r="P11">
-        <v>0.3351780661555555</v>
-      </c>
-      <c r="Q11">
-        <v>52.54751080138301</v>
-      </c>
-      <c r="R11">
-        <v>472.927597212447</v>
-      </c>
-      <c r="S11">
-        <v>0.2017797102287764</v>
-      </c>
-      <c r="T11">
-        <v>0.2017797102287764</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.826906</v>
+      </c>
+      <c r="H14">
+        <v>8.480718</v>
+      </c>
+      <c r="I14">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J14">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.405749</v>
+      </c>
+      <c r="N14">
+        <v>16.217247</v>
+      </c>
+      <c r="O14">
+        <v>0.3199970378477111</v>
+      </c>
+      <c r="P14">
+        <v>0.3199970378477111</v>
+      </c>
+      <c r="Q14">
+        <v>15.281544282594</v>
+      </c>
+      <c r="R14">
+        <v>137.533898543346</v>
+      </c>
+      <c r="S14">
+        <v>0.1561012689761979</v>
+      </c>
+      <c r="T14">
+        <v>0.1561012689761979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.826906</v>
+      </c>
+      <c r="H15">
+        <v>8.480718</v>
+      </c>
+      <c r="I15">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J15">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.577118333333333</v>
+      </c>
+      <c r="N15">
+        <v>4.731355</v>
+      </c>
+      <c r="O15">
+        <v>0.0933586067355302</v>
+      </c>
+      <c r="P15">
+        <v>0.09335860673553019</v>
+      </c>
+      <c r="Q15">
+        <v>4.458365279209999</v>
+      </c>
+      <c r="R15">
+        <v>40.12528751289</v>
+      </c>
+      <c r="S15">
+        <v>0.04554228713892553</v>
+      </c>
+      <c r="T15">
+        <v>0.04554228713892552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.826906</v>
+      </c>
+      <c r="H16">
+        <v>8.480718</v>
+      </c>
+      <c r="I16">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="J16">
+        <v>0.4878209811757308</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.877573666666666</v>
+      </c>
+      <c r="N16">
+        <v>5.632720999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1111442672743775</v>
+      </c>
+      <c r="P16">
+        <v>0.1111442672743775</v>
+      </c>
+      <c r="Q16">
+        <v>5.307724263741999</v>
+      </c>
+      <c r="R16">
+        <v>47.76951837367799</v>
+      </c>
+      <c r="S16">
+        <v>0.05421850551384451</v>
+      </c>
+      <c r="T16">
+        <v>0.05421850551384449</v>
       </c>
     </row>
   </sheetData>
